--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value369.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value369.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9118056555609251</v>
+        <v>1.02678108215332</v>
       </c>
       <c r="B1">
-        <v>1.982523246257947</v>
+        <v>3.31135892868042</v>
       </c>
       <c r="C1">
-        <v>2.812253731035333</v>
+        <v>3.58078145980835</v>
       </c>
       <c r="D1">
-        <v>2.455058193804658</v>
+        <v>2.049391269683838</v>
       </c>
       <c r="E1">
-        <v>0.9431894092715545</v>
+        <v>1.177251100540161</v>
       </c>
     </row>
   </sheetData>
